--- a/스프링부트 게시판제작 일정계획서(WBS)_v1.0_20200910.xlsx
+++ b/스프링부트 게시판제작 일정계획서(WBS)_v1.0_20200910.xlsx
@@ -569,25 +569,25 @@
     <xf numFmtId="14" fontId="16" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1176,36 +1176,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1232,28 +1232,28 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
@@ -1272,9 +1272,9 @@
         <f>(_xlfn.DAYS(E3,D3)+1)</f>
         <v>52</v>
       </c>
-      <c r="H3" s="15" t="e">
+      <c r="H3" s="15">
         <f>AVERAGE(H4,H6,H12,H16)</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="26">
         <v>5</v>
@@ -1352,15 +1352,15 @@
         <v>44085</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <f t="shared" ref="G4:G20" si="0">(_xlfn.DAYS(E4,D4)+1)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="19" t="e">
+      <c r="H4" s="19">
         <f>AVERAGE(H5:H5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="42"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -1396,11 +1396,13 @@
         <v>44085</v>
       </c>
       <c r="F5" s="39"/>
-      <c r="G5" s="47">
+      <c r="G5" s="45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
       <c r="I5" s="35"/>
       <c r="J5" s="32"/>
       <c r="K5" s="32"/>
@@ -1437,19 +1439,19 @@
         <v>44099</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H6" s="19" t="e">
+      <c r="H6" s="19">
         <f>AVERAGE(H7:H11)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I6" s="34"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -1481,11 +1483,13 @@
         <v>44088</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="47">
+      <c r="G7" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="24">
+        <v>0</v>
+      </c>
       <c r="I7" s="31"/>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -1522,11 +1526,13 @@
         <v>44092</v>
       </c>
       <c r="F8" s="39"/>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
       <c r="K8" s="36"/>
@@ -1563,11 +1569,13 @@
         <v>44097</v>
       </c>
       <c r="F9" s="40"/>
-      <c r="G9" s="47">
+      <c r="G9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
       <c r="K9" s="36"/>
@@ -1604,11 +1612,13 @@
         <v>44098</v>
       </c>
       <c r="F10" s="39"/>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="24">
+        <v>0</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -1645,11 +1655,13 @@
         <v>44099</v>
       </c>
       <c r="F11" s="39"/>
-      <c r="G11" s="47">
+      <c r="G11" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="24">
+        <v>0</v>
+      </c>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
       <c r="K11" s="32"/>
@@ -1686,32 +1698,32 @@
         <v>44127</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H12" s="19" t="e">
+      <c r="H12" s="19">
         <f>AVERAGE(H13:H15)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="30"/>
     </row>
@@ -1730,11 +1742,13 @@
         <v>44100</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="47">
+      <c r="G13" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="24">
+        <v>0</v>
+      </c>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -1771,11 +1785,13 @@
         <v>44113</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -1812,11 +1828,13 @@
         <v>44128</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="47">
+      <c r="G15" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24">
+        <v>0</v>
+      </c>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="32"/>
@@ -1853,13 +1871,13 @@
         <v>44135</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H16" s="19" t="e">
+      <c r="H16" s="19">
         <f>AVERAGE(H17:H20)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="29"/>
@@ -1879,8 +1897,8 @@
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
       <c r="Z16" s="29"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="46"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="44"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
@@ -1897,11 +1915,13 @@
         <v>44130</v>
       </c>
       <c r="F17" s="39"/>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
@@ -1938,11 +1958,13 @@
         <v>44131</v>
       </c>
       <c r="F18" s="39"/>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
       <c r="K18" s="32"/>
@@ -1979,11 +2001,13 @@
         <v>44135</v>
       </c>
       <c r="F19" s="41"/>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
       <c r="K19" s="32"/>
@@ -2020,11 +2044,13 @@
         <v>44135</v>
       </c>
       <c r="F20" s="39"/>
-      <c r="G20" s="47">
+      <c r="G20" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>

--- a/스프링부트 게시판제작 일정계획서(WBS)_v1.0_20200910.xlsx
+++ b/스프링부트 게시판제작 일정계획서(WBS)_v1.0_20200910.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\park_\OneDrive\바탕 화면\Inzent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\park_\OneDrive\바탕 화면\Inzent\스프링부트-게시판\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="H3" s="15">
         <f>AVERAGE(H4,H6,H12,H16)</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="I3" s="26">
         <v>5</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H6" s="19">
         <f>AVERAGE(H7:H11)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="43"/>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="36"/>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
